--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddeni\PycharmProjects\economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB9F1E-BFAB-4AD8-AE54-82909AA6E044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC5875-A604-4501-927E-917E53ABC998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="2970" windowWidth="10920" windowHeight="9630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3680,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10055,7 +10055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/data3.xlsx
+++ b/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddeni\PycharmProjects\economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC5875-A604-4501-927E-917E53ABC998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7DFE8-762C-4695-8E6C-3D121BBBF2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3680,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
